--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -97,6 +97,123 @@
   </si>
   <si>
     <t>&amp;copy; Coding Lizards GbR &amp;mdash; Backgroundpicture &amp;copy; Pokémon &amp;sdot; Nintendo &amp;sdot; Creatures &amp;sdot; GAME FREAK</t>
+  </si>
+  <si>
+    <t>User_List_Email</t>
+  </si>
+  <si>
+    <t>User_List_Title</t>
+  </si>
+  <si>
+    <t>User_List_Edit</t>
+  </si>
+  <si>
+    <t>Bearbeiten</t>
+  </si>
+  <si>
+    <t>User_List_Delete</t>
+  </si>
+  <si>
+    <t>Löschen</t>
+  </si>
+  <si>
+    <t>User_Add_Submit</t>
+  </si>
+  <si>
+    <t>Hinzufügen</t>
+  </si>
+  <si>
+    <t>User_Add_Title</t>
+  </si>
+  <si>
+    <t>User_Add_Cancel</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>User_Edit_Title</t>
+  </si>
+  <si>
+    <t>User_Edit_Submit</t>
+  </si>
+  <si>
+    <t>Speichern</t>
+  </si>
+  <si>
+    <t>User_Edit_Cancel</t>
+  </si>
+  <si>
+    <t>Benutzername</t>
+  </si>
+  <si>
+    <t>User_List_Password</t>
+  </si>
+  <si>
+    <t>User_List_Username</t>
+  </si>
+  <si>
+    <t>User_List_Actions</t>
+  </si>
+  <si>
+    <t>Aktionen</t>
+  </si>
+  <si>
+    <t>User_Details_Title</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>User_Details_Edit</t>
+  </si>
+  <si>
+    <t>User_Details_Delete</t>
+  </si>
+  <si>
+    <t>_LoginPartial_Greeting</t>
+  </si>
+  <si>
+    <t>Hallo {0}!</t>
+  </si>
+  <si>
+    <t>_LoginPartial_ChangePassword</t>
+  </si>
+  <si>
+    <t>Passwort ändern</t>
+  </si>
+  <si>
+    <t>_LoginPartial_Logoff</t>
+  </si>
+  <si>
+    <t>Abmelden</t>
+  </si>
+  <si>
+    <t>_LoginPartial_Login</t>
+  </si>
+  <si>
+    <t>User_Delete_Title</t>
+  </si>
+  <si>
+    <t>User_List_Add</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Oder</t>
+  </si>
+  <si>
+    <t>User_Delete_Content</t>
+  </si>
+  <si>
+    <t>Soll der Benutzer mit der Emailadresse {0} wirklich gelöscht werden?</t>
+  </si>
+  <si>
+    <t>User_Delete_Cancel</t>
+  </si>
+  <si>
+    <t>User_Delete_Submit</t>
   </si>
 </sst>
 </file>
@@ -937,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,125 +1067,336 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B35">
+    <sortCondition ref="A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -214,6 +214,78 @@
   </si>
   <si>
     <t>User_Delete_Submit</t>
+  </si>
+  <si>
+    <t>Enums_Type_Normal</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Enums_Type_Fighting</t>
+  </si>
+  <si>
+    <t>Kampf</t>
+  </si>
+  <si>
+    <t>Enums_Type_Flying</t>
+  </si>
+  <si>
+    <t>Flug</t>
+  </si>
+  <si>
+    <t>Enums_Type_Poison</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Enums_Type_Ground</t>
+  </si>
+  <si>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Enums_Type_Rock</t>
+  </si>
+  <si>
+    <t>Gestein</t>
+  </si>
+  <si>
+    <t>Enums_Type_Bug</t>
+  </si>
+  <si>
+    <t>Käfer</t>
+  </si>
+  <si>
+    <t>Enums_Type_Ghost</t>
+  </si>
+  <si>
+    <t>Geist</t>
+  </si>
+  <si>
+    <t>Enums_Type_Steel</t>
+  </si>
+  <si>
+    <t>Stahl</t>
+  </si>
+  <si>
+    <t>Enums_Type_Fire</t>
+  </si>
+  <si>
+    <t>Feuer</t>
+  </si>
+  <si>
+    <t>Enums_Type_Water</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Enums_Type_Grass</t>
+  </si>
+  <si>
+    <t>Pflanze</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,6 +1465,102 @@
         <v>31</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Texts" sheetId="1" r:id="rId1"/>
+    <sheet name="Deutsch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -286,6 +286,42 @@
   </si>
   <si>
     <t>Pflanze</t>
+  </si>
+  <si>
+    <t>Enums_Type_Electric</t>
+  </si>
+  <si>
+    <t>Elektro</t>
+  </si>
+  <si>
+    <t>Enums_Type_Psychic</t>
+  </si>
+  <si>
+    <t>Psycho</t>
+  </si>
+  <si>
+    <t>Enums_Type_Ice</t>
+  </si>
+  <si>
+    <t>Eis</t>
+  </si>
+  <si>
+    <t>Enums_Type_Dragon</t>
+  </si>
+  <si>
+    <t>Drache</t>
+  </si>
+  <si>
+    <t>Enums_Type_Dark</t>
+  </si>
+  <si>
+    <t>Unlicht</t>
+  </si>
+  <si>
+    <t>Enums_Type_Fairy</t>
+  </si>
+  <si>
+    <t>Fee</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,6 +1597,54 @@
         <v>88</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -322,13 +322,127 @@
   </si>
   <si>
     <t>Fee</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Title</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Add</t>
+  </si>
+  <si>
+    <t>Pokémon hinzufügen</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Edit</t>
+  </si>
+  <si>
+    <t>Pokémon bearbeiten</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Delete</t>
+  </si>
+  <si>
+    <t>Pokémon löschen</t>
+  </si>
+  <si>
+    <t>Pokemon_List_GermanName</t>
+  </si>
+  <si>
+    <t>Deutscher Name</t>
+  </si>
+  <si>
+    <t>Pokemon_List_EnglishName</t>
+  </si>
+  <si>
+    <t>Englischer Name</t>
+  </si>
+  <si>
+    <t>Pokemon_List_FrenchName</t>
+  </si>
+  <si>
+    <t>Französicher Name</t>
+  </si>
+  <si>
+    <t>Pokemon_List_FirstType</t>
+  </si>
+  <si>
+    <t>Erster Typ</t>
+  </si>
+  <si>
+    <t>Pokemon_List_SecondType</t>
+  </si>
+  <si>
+    <t>Zweiter Typ</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseHealth</t>
+  </si>
+  <si>
+    <t>Basis Gesundheit</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseAttack</t>
+  </si>
+  <si>
+    <t>Basis Attacke</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseSpecialAttack</t>
+  </si>
+  <si>
+    <t>Basis Spezialattacke</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseSpecialDefense</t>
+  </si>
+  <si>
+    <t>Basis Spezialverteidigung</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseDefense</t>
+  </si>
+  <si>
+    <t>Basis Verteidigung</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseSpeed</t>
+  </si>
+  <si>
+    <t>Basis Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Pokemon_List_BaseExperience</t>
+  </si>
+  <si>
+    <t>Basiswert</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Thumbnail</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Sprite</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Name</t>
+  </si>
+  <si>
+    <t>Pokemon_List_Actions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +576,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -805,8 +925,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1162,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1768,166 @@
         <v>100</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -384,15 +384,9 @@
     <t>Pokemon_List_BaseAttack</t>
   </si>
   <si>
-    <t>Basis Attacke</t>
-  </si>
-  <si>
     <t>Pokemon_List_BaseSpecialAttack</t>
   </si>
   <si>
-    <t>Basis Spezialattacke</t>
-  </si>
-  <si>
     <t>Pokemon_List_BaseSpecialDefense</t>
   </si>
   <si>
@@ -436,6 +430,75 @@
   </si>
   <si>
     <t>Pokemon_List_Actions</t>
+  </si>
+  <si>
+    <t>Pokemon_Add_Title</t>
+  </si>
+  <si>
+    <t>Pokemon_Add_Submit</t>
+  </si>
+  <si>
+    <t>Pokemon_Add_Cancel</t>
+  </si>
+  <si>
+    <t>Pokemon_Add_BaseValues</t>
+  </si>
+  <si>
+    <t>Basiswerte</t>
+  </si>
+  <si>
+    <t>Basis Angriff</t>
+  </si>
+  <si>
+    <t>Basis Spezialangriff</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_Title</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_BaseValues</t>
+  </si>
+  <si>
+    <t>Enums_XpType_Fast</t>
+  </si>
+  <si>
+    <t>Schnell</t>
+  </si>
+  <si>
+    <t>Enums_XpType_MediumFast</t>
+  </si>
+  <si>
+    <t>Mittel-Schnell</t>
+  </si>
+  <si>
+    <t>Enums_XpType_MediumSlow</t>
+  </si>
+  <si>
+    <t>Mittel-Langsam</t>
+  </si>
+  <si>
+    <t>Enums_XpType_Slow</t>
+  </si>
+  <si>
+    <t>Langsam</t>
+  </si>
+  <si>
+    <t>Enums_XpType_Erratic</t>
+  </si>
+  <si>
+    <t>Erratic</t>
+  </si>
+  <si>
+    <t>Enums_XpType_Fluctuating</t>
+  </si>
+  <si>
+    <t>Fluctuating</t>
+  </si>
+  <si>
+    <t>Pokemon_List_ExperienceType</t>
+  </si>
+  <si>
+    <t>Erfahrungstyp</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,79 +1916,183 @@
         <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="227">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -462,43 +462,244 @@
     <t>Enums_XpType_Fast</t>
   </si>
   <si>
-    <t>Schnell</t>
-  </si>
-  <si>
     <t>Enums_XpType_MediumFast</t>
   </si>
   <si>
-    <t>Mittel-Schnell</t>
-  </si>
-  <si>
     <t>Enums_XpType_MediumSlow</t>
   </si>
   <si>
-    <t>Mittel-Langsam</t>
-  </si>
-  <si>
     <t>Enums_XpType_Slow</t>
   </si>
   <si>
-    <t>Langsam</t>
-  </si>
-  <si>
     <t>Enums_XpType_Erratic</t>
   </si>
   <si>
-    <t>Erratic</t>
-  </si>
-  <si>
     <t>Enums_XpType_Fluctuating</t>
   </si>
   <si>
-    <t>Fluctuating</t>
-  </si>
-  <si>
     <t>Pokemon_List_ExperienceType</t>
   </si>
   <si>
     <t>Erfahrungstyp</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_Edit</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_Delete</t>
+  </si>
+  <si>
+    <t>Pokemon_Edit_Title</t>
+  </si>
+  <si>
+    <t>Pokemon_Edit_Submit</t>
+  </si>
+  <si>
+    <t>Pokemon_Edit_Cancel</t>
+  </si>
+  <si>
+    <t>Pokemon_Edit_BaseValues</t>
+  </si>
+  <si>
+    <t>Pokemon_Delete_Title</t>
+  </si>
+  <si>
+    <t>Pokemon_Delete_Content</t>
+  </si>
+  <si>
+    <t>Soll das Pokémon {0} wirklich gelöscht werden?</t>
+  </si>
+  <si>
+    <t>Pokemon_Delete_Submit</t>
+  </si>
+  <si>
+    <t>Pokemon_Delete_Cancel</t>
+  </si>
+  <si>
+    <t>Mittel-Schnell (max. 1.000.000 EP)</t>
+  </si>
+  <si>
+    <t>Schnell (max. 800.000 EP)</t>
+  </si>
+  <si>
+    <t>Mittel-Langsam (max. 1.059.860 EP)</t>
+  </si>
+  <si>
+    <t>Langsam (max. 1.250.000 EP)</t>
+  </si>
+  <si>
+    <t>Fluctuating (max. 1.640.000 EP)</t>
+  </si>
+  <si>
+    <t>Erratic (max. 600.000)</t>
+  </si>
+  <si>
+    <t>Enums_DamageClass_Status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Enums_DamageClass_Special</t>
+  </si>
+  <si>
+    <t>Spezial</t>
+  </si>
+  <si>
+    <t>Enums_DamageClass_Physical</t>
+  </si>
+  <si>
+    <t>Physisch</t>
+  </si>
+  <si>
+    <t>Attack_List_GermanName</t>
+  </si>
+  <si>
+    <t>Attack_List_EnglishName</t>
+  </si>
+  <si>
+    <t>Attack_List_FrenchName</t>
+  </si>
+  <si>
+    <t>Attack_List_Type</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Attack_List_Strength</t>
+  </si>
+  <si>
+    <t>Stärke</t>
+  </si>
+  <si>
+    <t>Attack_List_Accuracy</t>
+  </si>
+  <si>
+    <t>Genauigkeit</t>
+  </si>
+  <si>
+    <t>Attack_Add_Title</t>
+  </si>
+  <si>
+    <t>Attacke hinzufügen</t>
+  </si>
+  <si>
+    <t>Attack_Add_Submit</t>
+  </si>
+  <si>
+    <t>Attack_Add_Cancel</t>
+  </si>
+  <si>
+    <t>Attack_List_Actions</t>
+  </si>
+  <si>
+    <t>Attack_List_Name</t>
+  </si>
+  <si>
+    <t>Attack_List_Title</t>
+  </si>
+  <si>
+    <t>Attack_List_Add</t>
+  </si>
+  <si>
+    <t>Attack_List_Edit</t>
+  </si>
+  <si>
+    <t>Attacke bearbeiten</t>
+  </si>
+  <si>
+    <t>Attack_List_Delete</t>
+  </si>
+  <si>
+    <t>Attacke löschen</t>
+  </si>
+  <si>
+    <t>Attack_Details_Title</t>
+  </si>
+  <si>
+    <t>Attack_Details_Edit</t>
+  </si>
+  <si>
+    <t>Attack_Details_Delete</t>
+  </si>
+  <si>
+    <t>Attack_Edit_Title</t>
+  </si>
+  <si>
+    <t>Attack_Edit_Submit</t>
+  </si>
+  <si>
+    <t>Attack_Edit_Cancel</t>
+  </si>
+  <si>
+    <t>Attack_Delete_Title</t>
+  </si>
+  <si>
+    <t>Attack_Delete_Content</t>
+  </si>
+  <si>
+    <t>Soll die Attacke {0} wirklich gelöscht werden?</t>
+  </si>
+  <si>
+    <t>Attack_Delete_Cancel</t>
+  </si>
+  <si>
+    <t>Attack_Delete_Submit</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentAttack</t>
+  </si>
+  <si>
+    <t>Aktueller Angriff</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentDefense</t>
+  </si>
+  <si>
+    <t>Aktuelle Verteidigung</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentHealth</t>
+  </si>
+  <si>
+    <t>Aktuelle KP</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentSpecialAttack</t>
+  </si>
+  <si>
+    <t>Aktueller Spezialangriff</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentSpecialDefense</t>
+  </si>
+  <si>
+    <t>Aktuelle Spezialverteidigung</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentSpeed</t>
+  </si>
+  <si>
+    <t>Aktuelle Initiative</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentMaxValues</t>
+  </si>
+  <si>
+    <t>Aktuelle maximal Werte</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_CurrentMinValues</t>
+  </si>
+  <si>
+    <t>Aktuelle minimal Werte</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_Level</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,55 +2246,431 @@
         <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>158</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>207</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="229">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Pokemon_Details_ValuesOnLevel</t>
+  </si>
+  <si>
+    <t>Werte auf Level</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,6 +2679,14 @@
         <v>226</v>
       </c>
     </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="244">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -706,6 +706,51 @@
   </si>
   <si>
     <t>Werte auf Level</t>
+  </si>
+  <si>
+    <t>Home_Index_Title</t>
+  </si>
+  <si>
+    <t>Startseite</t>
+  </si>
+  <si>
+    <t>Home_Index_Fight</t>
+  </si>
+  <si>
+    <t>Home_Index_XpCalc</t>
+  </si>
+  <si>
+    <t>Erfahrung</t>
+  </si>
+  <si>
+    <t>Home_Index_MyPokemon</t>
+  </si>
+  <si>
+    <t>Mein Pokémon</t>
+  </si>
+  <si>
+    <t>Home_Index_OpponentPokemon</t>
+  </si>
+  <si>
+    <t>Gegnerisches Pokémon</t>
+  </si>
+  <si>
+    <t>Home_Index_UsedAttack</t>
+  </si>
+  <si>
+    <t>Eingesetzte Attacke</t>
+  </si>
+  <si>
+    <t>Home_Index_Level</t>
+  </si>
+  <si>
+    <t>Home_Index_Pokemon</t>
+  </si>
+  <si>
+    <t>Home_Index_SearchPokemon</t>
+  </si>
+  <si>
+    <t>Pokémon suchen</t>
   </si>
 </sst>
 </file>
@@ -1555,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,6 +2732,78 @@
         <v>228</v>
       </c>
     </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>231</v>
+      </c>
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>236</v>
+      </c>
+      <c r="B145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>238</v>
+      </c>
+      <c r="B146" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>

--- a/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
+++ b/Coding.Lizards.Pokemon.Tools.Web/Strings/Texts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="250">
   <si>
     <t>Account_Login_Title</t>
   </si>
@@ -751,6 +751,24 @@
   </si>
   <si>
     <t>Pokémon suchen</t>
+  </si>
+  <si>
+    <t>Home_Index_SearchAttack</t>
+  </si>
+  <si>
+    <t>Attacke suchen</t>
+  </si>
+  <si>
+    <t>Home_Index_MinDamage</t>
+  </si>
+  <si>
+    <t>Minimaler Schaden</t>
+  </si>
+  <si>
+    <t>Home_Index_MaxDamage</t>
+  </si>
+  <si>
+    <t>Maximaler Schaden</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:B149"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A152" sqref="A151:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,6 +2822,30 @@
         <v>243</v>
       </c>
     </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>248</v>
+      </c>
+      <c r="B152" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B35">
     <sortCondition ref="A35"/>
